--- a/Zadania/SU.xlsx
+++ b/Zadania/SU.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Zadanie</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>Sprawozdanie z c4.5</t>
-  </si>
-  <si>
-    <t>20.10.2014</t>
   </si>
   <si>
     <t>ILA</t>
@@ -490,7 +487,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +499,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -526,29 +523,29 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
